--- a/src/main/scala/start/Type Classes Methods.xlsx
+++ b/src/main/scala/start/Type Classes Methods.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicho\IntellijProjects\SCALA\ScalaCatsEffectsProjects\src\main\scala\start\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826E0C49-064F-4A99-AE71-FADD7DC7E105}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A08AEC0-2A1E-4841-8B56-E94D6527AA85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3564" yWindow="2220" windowWidth="17280" windowHeight="8964" xr2:uid="{75F4ED05-C6DD-41C8-A315-A5B4FEC044AF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="81">
   <si>
     <t>Type Class</t>
   </si>
@@ -267,6 +267,15 @@
   </si>
   <si>
     <t>Async                                                              (+ async ffi)</t>
+  </si>
+  <si>
+    <t>Takes a callback of type Either[Throwable, A] =&gt; Unit (representing the result of the asynchronous computation). The execution of async(k) is semantically blocked until the callback is invoked.</t>
+  </si>
+  <si>
+    <t>F.async_</t>
+  </si>
+  <si>
+    <t>Same as F.async for when we don't need to perform F[_] effects or perform finalization in the event of cancelation.</t>
   </si>
 </sst>
 </file>
@@ -701,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A528AA2-56C5-4993-A1F8-E19F715DA993}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1033,9 +1042,18 @@
       <c r="B40" t="s">
         <v>67</v>
       </c>
+      <c r="C40" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
+      <c r="B41" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>

--- a/src/main/scala/start/Type Classes Methods.xlsx
+++ b/src/main/scala/start/Type Classes Methods.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicho\IntellijProjects\SCALA\ScalaCatsEffectsProjects\src\main\scala\start\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A08AEC0-2A1E-4841-8B56-E94D6527AA85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2B7A07-E121-4A66-ACAF-227964B833ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3564" yWindow="2220" windowWidth="17280" windowHeight="8964" xr2:uid="{75F4ED05-C6DD-41C8-A315-A5B4FEC044AF}"/>
   </bookViews>
@@ -710,7 +710,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A528AA2-56C5-4993-A1F8-E19F715DA993}">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
